--- a/pr-preview/pr-1/CodeSystem-tb-lab---lpa-specimen-cs.xlsx
+++ b/pr-preview/pr-1/CodeSystem-tb-lab---lpa-specimen-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T19:13:07+00:00</t>
+    <t>2024-12-18T19:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pr-preview/pr-1/CodeSystem-tb-lab---lpa-specimen-cs.xlsx
+++ b/pr-preview/pr-1/CodeSystem-tb-lab---lpa-specimen-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T19:24:05+00:00</t>
+    <t>2024-12-18T19:34:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
